--- a/run_cloud_experiments/input/industry_case/db_backboneConfig_industriecase.xlsx
+++ b/run_cloud_experiments/input/industry_case/db_backboneConfig_industriecase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HOUJ\Documents\GitHub\HOLON\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90E052E-9FCF-482E-8C4E-34E489176441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B09D267-EB45-4BCA-B9AC-3B0B7803CFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
   <si>
     <t>id</t>
   </si>
@@ -114,9 +114,6 @@
     <t>PRODUCTION</t>
   </si>
   <si>
-    <t>PHOTOVOLTAIC</t>
-  </si>
-  <si>
     <t>BUILDING</t>
   </si>
   <si>
@@ -295,6 +292,27 @@
   </si>
   <si>
     <t>Grid_MS_congestion_pricing_production</t>
+  </si>
+  <si>
+    <t>b7</t>
+  </si>
+  <si>
+    <t>DISTRICTBATTERY</t>
+  </si>
+  <si>
+    <t>ELECTRIC</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>STORAGE</t>
+  </si>
+  <si>
+    <t>Solarpanels_1MW</t>
+  </si>
+  <si>
+    <t>District_Battery_500_kWh</t>
   </si>
 </sst>
 </file>
@@ -365,8 +383,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FDC8E75-E660-414B-B3E1-5B0A34732FF0}" name="Table1" displayName="Table1" ref="A1:K7" totalsRowShown="0">
-  <autoFilter ref="A1:K7" xr:uid="{0FDC8E75-E660-414B-B3E1-5B0A34732FF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FDC8E75-E660-414B-B3E1-5B0A34732FF0}" name="Table1" displayName="Table1" ref="A1:K8" totalsRowShown="0">
+  <autoFilter ref="A1:K8" xr:uid="{0FDC8E75-E660-414B-B3E1-5B0A34732FF0}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{C1F26C42-EF09-4FAE-B3E5-DAEA8219B8D2}" name="index"/>
     <tableColumn id="2" xr3:uid="{9B7F7DBE-603C-4CF1-A73C-0BBF726EF99E}" name="agenttype"/>
@@ -776,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -784,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -802,7 +820,7 @@
         <v>1000</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -810,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -825,7 +843,7 @@
         <v>500000</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -833,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -842,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1">
         <v>300000</v>
@@ -855,10 +873,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F79AE7D-6C5C-4EEF-8F2D-727C87414EF2}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -891,22 +909,22 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -914,22 +932,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -938,7 +956,7 @@
         <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -946,22 +964,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
@@ -970,7 +988,7 @@
         <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -978,22 +996,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
         <v>1</v>
@@ -1002,7 +1020,7 @@
         <v>1000</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1010,22 +1028,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
         <v>67</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
       </c>
       <c r="H5" t="s">
         <v>2</v>
@@ -1034,7 +1052,7 @@
         <v>1000</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1042,22 +1060,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
         <v>2</v>
@@ -1066,7 +1084,7 @@
         <v>400000</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1074,22 +1092,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
         <v>2</v>
@@ -1101,7 +1119,39 @@
         <v>400000</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1000</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1168,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1142,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1150,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1167,16 +1217,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1184,16 +1234,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1201,16 +1251,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1218,16 +1268,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1235,16 +1285,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1252,16 +1302,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1269,16 +1319,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1292,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB486294-FB31-4C8F-BAEC-47B37B38DF9C}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K33:K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1328,10 +1378,10 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1347,18 +1397,13 @@
       <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
+      <c r="E2" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -1373,17 +1418,32 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
+      <c r="E3" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1409,16 +1469,16 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1426,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1440,16 +1500,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
         <v>77</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1457,16 +1517,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1474,16 +1534,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>0.7</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1491,13 +1551,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1505,13 +1565,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/run_cloud_experiments/input/industry_case/db_backboneConfig_industriecase.xlsx
+++ b/run_cloud_experiments/input/industry_case/db_backboneConfig_industriecase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HOUJ\Documents\GitHub\HOLON\Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilli\Documents\Project HOLON\Git_Local_Clone\HOLON\run_cloud_experiments\input\industry_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B09D267-EB45-4BCA-B9AC-3B0B7803CFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7448B6B6-C037-444A-ACA1-0BFB6024FD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="26376" windowHeight="12264" activeTab="1" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -51,15 +51,9 @@
     <t>E2</t>
   </si>
   <si>
-    <t>H1</t>
-  </si>
-  <si>
     <t>ELECTRICITY</t>
   </si>
   <si>
-    <t>HEAT</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -96,12 +90,6 @@
     <t>b4</t>
   </si>
   <si>
-    <t>b5</t>
-  </si>
-  <si>
-    <t>b6</t>
-  </si>
-  <si>
     <t>energyAsset</t>
   </si>
   <si>
@@ -120,15 +108,6 @@
     <t>SOLARFARM</t>
   </si>
   <si>
-    <t>STORE</t>
-  </si>
-  <si>
-    <t>OFFICE</t>
-  </si>
-  <si>
-    <t>DISTRICTHEATING</t>
-  </si>
-  <si>
     <t>parent_electric</t>
   </si>
   <si>
@@ -156,9 +135,6 @@
     <t>sup1</t>
   </si>
   <si>
-    <t>sup2</t>
-  </si>
-  <si>
     <t>commercial</t>
   </si>
   <si>
@@ -204,30 +180,12 @@
     <t>GRIDOPERATOR</t>
   </si>
   <si>
-    <t>HT</t>
-  </si>
-  <si>
-    <t>GASFIRED</t>
-  </si>
-  <si>
     <t>gridNode</t>
   </si>
   <si>
     <t>gridConnection</t>
   </si>
   <si>
-    <t>GASBURNER</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>DISTRICTHEAT</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>heating_type</t>
   </si>
   <si>
@@ -237,15 +195,9 @@
     <t>INDUSTRY</t>
   </si>
   <si>
-    <t>STEEL</t>
-  </si>
-  <si>
     <t>INDUSTRY_OTHER</t>
   </si>
   <si>
-    <t>HYDROGENFIRED</t>
-  </si>
-  <si>
     <t>parameter</t>
   </si>
   <si>
@@ -294,15 +246,6 @@
     <t>Grid_MS_congestion_pricing_production</t>
   </si>
   <si>
-    <t>b7</t>
-  </si>
-  <si>
-    <t>DISTRICTBATTERY</t>
-  </si>
-  <si>
-    <t>ELECTRIC</t>
-  </si>
-  <si>
     <t>a3</t>
   </si>
   <si>
@@ -312,7 +255,19 @@
     <t>Solarpanels_1MW</t>
   </si>
   <si>
-    <t>District_Battery_500_kWh</t>
+    <t>GRIDBATTERY</t>
+  </si>
+  <si>
+    <t>LOGISTICS</t>
+  </si>
+  <si>
+    <t>CONSUMPTION</t>
+  </si>
+  <si>
+    <t>Logistics_fleet_hgv_E</t>
+  </si>
+  <si>
+    <t>Grid_battery_1MWh</t>
   </si>
 </sst>
 </file>
@@ -383,8 +338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FDC8E75-E660-414B-B3E1-5B0A34732FF0}" name="Table1" displayName="Table1" ref="A1:K8" totalsRowShown="0">
-  <autoFilter ref="A1:K8" xr:uid="{0FDC8E75-E660-414B-B3E1-5B0A34732FF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FDC8E75-E660-414B-B3E1-5B0A34732FF0}" name="Table1" displayName="Table1" ref="A1:K5" totalsRowShown="0">
+  <autoFilter ref="A1:K5" xr:uid="{0FDC8E75-E660-414B-B3E1-5B0A34732FF0}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{C1F26C42-EF09-4FAE-B3E5-DAEA8219B8D2}" name="index"/>
     <tableColumn id="2" xr3:uid="{9B7F7DBE-603C-4CF1-A73C-0BBF726EF99E}" name="agenttype"/>
@@ -403,8 +358,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CF0D67E-F55B-4E94-9A5D-19FED3AD8793}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0">
-  <autoFilter ref="A1:E9" xr:uid="{0CF0D67E-F55B-4E94-9A5D-19FED3AD8793}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CF0D67E-F55B-4E94-9A5D-19FED3AD8793}" name="Table2" displayName="Table2" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{0CF0D67E-F55B-4E94-9A5D-19FED3AD8793}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{197B321A-909C-4F74-AAE6-1AC15430CB98}" name="index"/>
     <tableColumn id="2" xr3:uid="{CE572F0B-3702-417E-97C9-4D15386A7686}" name="type"/>
@@ -719,35 +674,35 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -761,57 +716,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243F788D-3AF5-439A-A91F-12D1BED9A308}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q29:Q30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="H1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -820,51 +775,34 @@
         <v>1000</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
         <v>500000</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="1">
-        <v>300000</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -873,177 +811,177 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F79AE7D-6C5C-4EEF-8F2D-727C87414EF2}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>2</v>
@@ -1052,106 +990,7 @@
         <v>1000</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>400000</v>
-      </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>400000</v>
-      </c>
-      <c r="K7" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>1000</v>
-      </c>
-      <c r="K8" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1165,170 +1004,153 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F595F011-BCBA-42A0-B2C1-EC2B9C01AA0D}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
+      <c r="D7" t="s">
+        <v>34</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1344,106 +1166,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB486294-FB31-4C8F-BAEC-47B37B38DF9C}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.375" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1459,119 +1281,119 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>0.7</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
